--- a/output/LOWVOL/rebalance/rebalance_20240628.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20240628.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>43.82%</t>
+          <t>21.76%</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02161435501587105</v>
+        <v>0.02362711936293988</v>
       </c>
       <c r="C2" t="n">
         <v>0.02891140751654064</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007297052500669591</v>
+        <v>0.005284288153600766</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02034352891718575</v>
+        <v>0.02464894914385189</v>
       </c>
       <c r="C3" t="n">
         <v>0.02787081444179026</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007527285524604514</v>
+        <v>0.003221865297938373</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02155342008078046</v>
+        <v>0.02456612828498542</v>
       </c>
       <c r="C4" t="n">
         <v>0.02783204661179254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006278626531012077</v>
+        <v>0.003265918326807123</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02015028713072163</v>
+        <v>0.02510554739740504</v>
       </c>
       <c r="C5" t="n">
         <v>0.02664218085759721</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006491893726875579</v>
+        <v>0.001536633460192165</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.016830435625772</v>
+        <v>0.02177879321961758</v>
       </c>
       <c r="C6" t="n">
         <v>0.02582650998064961</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008996074354877603</v>
+        <v>0.004047716761032025</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01677238038443356</v>
+        <v>0.02462643956438921</v>
       </c>
       <c r="C7" t="n">
         <v>0.02519559934969607</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008423218965262505</v>
+        <v>0.0005691597853068643</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02016820320377676</v>
+        <v>0.02278951656508817</v>
       </c>
       <c r="C8" t="n">
         <v>0.02517269721411493</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005004494010338176</v>
+        <v>0.002383180649026758</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01848617133182145</v>
+        <v>0.01995904630470701</v>
       </c>
       <c r="C9" t="n">
         <v>0.02439803578219026</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005911864450368811</v>
+        <v>0.004438989477483248</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,17 +6450,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02071828858251424</v>
+        <v>0.02507927252698097</v>
       </c>
       <c r="C10" t="n">
         <v>0.02410707382108046</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003388785238566217</v>
+        <v>-0.0009721987059005156</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01868132181212</v>
+        <v>0.0204074350984627</v>
       </c>
       <c r="C11" t="n">
         <v>0.02256909124826002</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003887769436140023</v>
+        <v>0.002161656149797322</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01590303011165012</v>
+        <v>0.02109015655023212</v>
       </c>
       <c r="C12" t="n">
         <v>0.02254341572276091</v>
       </c>
       <c r="D12" t="n">
-        <v>0.006640385611110793</v>
+        <v>0.001453259172528799</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,17 +6513,17 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01611768404595209</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0.02077813671369033</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004660452667738242</v>
+        <v>0.02077813671369033</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>新增</t>
         </is>
       </c>
     </row>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01892359738352068</v>
+        <v>0.01820978086942295</v>
       </c>
       <c r="C14" t="n">
         <v>0.02065838566254367</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001734788279022993</v>
+        <v>0.002448604793120729</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01741561918888193</v>
+        <v>0.01736304964382798</v>
       </c>
       <c r="C15" t="n">
         <v>0.02063550244274269</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003219883253860755</v>
+        <v>0.003272452798914711</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,17 +6576,17 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.01995693259069936</v>
       </c>
       <c r="C16" t="n">
         <v>0.02049251687862193</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02049251687862193</v>
+        <v>0.0005355842879225629</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6597,17 +6597,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.01785509921855159</v>
       </c>
       <c r="C17" t="n">
         <v>0.02025294955584253</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02025294955584253</v>
+        <v>0.002397850337290935</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6618,17 +6618,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.01857574150519969</v>
       </c>
       <c r="C18" t="n">
         <v>0.02015978685278786</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02015978685278786</v>
+        <v>0.001584045347588169</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01756020716982742</v>
+        <v>0.01611996226459539</v>
       </c>
       <c r="C19" t="n">
         <v>0.02015648729137089</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002596280121543473</v>
+        <v>0.004036525026775508</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01625231164385321</v>
+        <v>0.01820477537120514</v>
       </c>
       <c r="C20" t="n">
         <v>0.02013089255416659</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003878580910313376</v>
+        <v>0.00192611718296145</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02050572594125004</v>
+        <v>0.02078332725191926</v>
       </c>
       <c r="C21" t="n">
         <v>0.02005915568633871</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0004465702549113319</v>
+        <v>-0.0007241715655805538</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,17 +6702,17 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.01947661860210799</v>
       </c>
       <c r="C22" t="n">
         <v>0.01999752177614628</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01999752177614628</v>
+        <v>0.0005209031740382938</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02799579625817123</v>
+        <v>0.02385504457066485</v>
       </c>
       <c r="C23" t="n">
         <v>0.01998043639129229</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.008015359866878936</v>
+        <v>-0.00387460817937256</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01701314345278617</v>
+        <v>0.0178384992222055</v>
       </c>
       <c r="C24" t="n">
         <v>0.01977774530784111</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002764601855054932</v>
+        <v>0.001939246085635601</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01578109347866246</v>
+        <v>0.01706087591366818</v>
       </c>
       <c r="C25" t="n">
         <v>0.01956865418119118</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003787560702528722</v>
+        <v>0.002507778267522999</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03052322232578189</v>
+        <v>0.02552710210222405</v>
       </c>
       <c r="C26" t="n">
         <v>0.01930252386871256</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01122069845706933</v>
+        <v>-0.006224578233511489</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,17 +6807,17 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01716420671351971</v>
+        <v>0.01981136201089937</v>
       </c>
       <c r="C27" t="n">
         <v>0.01926129187682101</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002097085163301305</v>
+        <v>-0.0005500701340783523</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01639962954813514</v>
+        <v>0.01677225338620305</v>
       </c>
       <c r="C28" t="n">
         <v>0.01901015595169003</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002610526403554889</v>
+        <v>0.002237902565486984</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01928690249865512</v>
+        <v>0.02091322953905587</v>
       </c>
       <c r="C29" t="n">
         <v>0.01899726106310143</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.000289641435553694</v>
+        <v>-0.001915968475954443</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6870,17 +6870,17 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.01671933812794368</v>
       </c>
       <c r="C30" t="n">
         <v>0.01893408188391157</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01893408188391157</v>
+        <v>0.002214743755967898</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6891,17 +6891,17 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.01709013118856876</v>
       </c>
       <c r="C31" t="n">
         <v>0.01855754012987096</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01855754012987096</v>
+        <v>0.001467408941302199</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6912,17 +6912,17 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.01678658786653391</v>
       </c>
       <c r="C32" t="n">
         <v>0.0183662618746233</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0183662618746233</v>
+        <v>0.00157967400808939</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6933,17 +6933,17 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.01624688910346199</v>
       </c>
       <c r="C33" t="n">
         <v>0.0183214915762802</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0183214915762802</v>
+        <v>0.002074602472818207</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6954,17 +6954,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01750630738300264</v>
+        <v>0.01947093947141192</v>
       </c>
       <c r="C34" t="n">
         <v>0.01828440526237749</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0007780978793748491</v>
+        <v>-0.001186534209034428</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02237368141912477</v>
+        <v>0.02195546911357792</v>
       </c>
       <c r="C35" t="n">
         <v>0.01806174507176764</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.004311936347357128</v>
+        <v>-0.003893724041810275</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01674405178559115</v>
+        <v>0.01506931967658159</v>
       </c>
       <c r="C37" t="n">
         <v>0.01790626138703229</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001162209601441137</v>
+        <v>0.002836941710450703</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01897885404121668</v>
+        <v>0.01891625026210465</v>
       </c>
       <c r="C40" t="n">
         <v>0.01722283406858277</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.001756019972633902</v>
+        <v>-0.001693416193521875</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01655137095070013</v>
+        <v>0.01668398605826571</v>
       </c>
       <c r="C41" t="n">
         <v>0.01706601590619566</v>
       </c>
       <c r="D41" t="n">
-        <v>0.000514644955495535</v>
+        <v>0.0003820298479299544</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7143,17 +7143,17 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.01729658098406543</v>
       </c>
       <c r="C43" t="n">
         <v>0.01685798411935381</v>
       </c>
       <c r="D43" t="n">
-        <v>0.01685798411935381</v>
+        <v>-0.0004385968647116108</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7164,17 +7164,17 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01749796114925155</v>
+        <v>0.01648319537164441</v>
       </c>
       <c r="C44" t="n">
         <v>0.01675529706573752</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0007426640835140295</v>
+        <v>0.0002721016940931097</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02129842660923036</v>
+        <v>0.01714950737642144</v>
       </c>
       <c r="C45" t="n">
         <v>0.01675336141244338</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.004545065196786983</v>
+        <v>-0.0003961459639780646</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7248,17 +7248,17 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.02030116135468079</v>
       </c>
       <c r="C48" t="n">
         <v>0.01630129669887867</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01630129669887867</v>
+        <v>-0.00399986465580212</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7269,17 +7269,17 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.01679386709052998</v>
       </c>
       <c r="C49" t="n">
         <v>0.01605722231783535</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01605722231783535</v>
+        <v>-0.0007366447726946321</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7328,17 +7328,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>1723</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02163331665376563</v>
+        <v>0.01444634007693042</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02163331665376563</v>
+        <v>-0.01444634007693042</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7349,17 +7349,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2227</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01134931210698273</v>
+        <v>0.01968685829987607</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01134931210698273</v>
+        <v>-0.01968685829987607</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7370,17 +7370,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0130747605721796</v>
+        <v>0.02206929741575743</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0130747605721796</v>
+        <v>-0.02206929741575743</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7391,17 +7391,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01787024483737791</v>
+        <v>0.02146270619967941</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01787024483737791</v>
+        <v>-0.02146270619967941</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7412,17 +7412,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1440</t>
+          <t>5522</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02478370959311173</v>
+        <v>0.02694586033466213</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02478370959311173</v>
+        <v>-0.02694586033466213</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7433,17 +7433,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0174975947125564</v>
+        <v>0.02178971428137573</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0174975947125564</v>
+        <v>-0.02178971428137573</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7454,17 +7454,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1723</t>
+          <t>2915</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01441158154142786</v>
+        <v>0.01790594169276127</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01441158154142786</v>
+        <v>-0.01790594169276127</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7475,17 +7475,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2101</t>
+          <t>2809</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02269747366764666</v>
+        <v>0.02420670513564291</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02269747366764666</v>
+        <v>-0.02420670513564291</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7496,229 +7496,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6182</t>
+          <t>2849</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0143477172009831</v>
+        <v>0.02252129543641212</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.0143477172009831</v>
+        <v>-0.02252129543641212</v>
       </c>
       <c r="E60" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2308</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.02071506065567246</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-0.02071506065567246</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2258</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.0185319624601498</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-0.0185319624601498</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2809</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.03342450707486227</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-0.03342450707486227</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2867</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.04126780907931432</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-0.04126780907931432</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2317</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.03547289072081397</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.03547289072081397</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>3714</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.01474553001745813</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.01474553001745813</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2330</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.03010453535998271</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.03010453535998271</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2337</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.01322047233861165</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.01322047233861165</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2354</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.0222341040273842</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.0222341040273842</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>9945</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.0195062021959574</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.0195062021959574</v>
-      </c>
-      <c r="E70" t="inlineStr">
         <is>
           <t>刪除</t>
         </is>

--- a/output/LOWVOL/rebalance/rebalance_20240628.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20240628.xlsx
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02362711936293988</v>
+        <v>0.02362628665123728</v>
       </c>
       <c r="C2" t="n">
         <v>0.02891140751654064</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005284288153600766</v>
+        <v>0.005285120865303361</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02464894914385189</v>
+        <v>0.0246476968499048</v>
       </c>
       <c r="C3" t="n">
         <v>0.02787081444179026</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003221865297938373</v>
+        <v>0.003223117591885465</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02456612828498542</v>
+        <v>0.02456541268189052</v>
       </c>
       <c r="C4" t="n">
         <v>0.02783204661179254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003265918326807123</v>
+        <v>0.003266633929902014</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02510554739740504</v>
+        <v>0.02510419758989544</v>
       </c>
       <c r="C5" t="n">
         <v>0.02664218085759721</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001536633460192165</v>
+        <v>0.001537983267701763</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02177879321961758</v>
+        <v>0.02177799312156369</v>
       </c>
       <c r="C6" t="n">
         <v>0.02582650998064961</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004047716761032025</v>
+        <v>0.004048516859085922</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02462643956438921</v>
+        <v>0.02462701022070983</v>
       </c>
       <c r="C7" t="n">
         <v>0.02519559934969607</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0005691597853068643</v>
+        <v>0.0005685891289862431</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02278951656508817</v>
+        <v>0.02278961003315643</v>
       </c>
       <c r="C8" t="n">
         <v>0.02517269721411493</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002383180649026758</v>
+        <v>0.002383087180958501</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01995904630470701</v>
+        <v>0.01995996909123286</v>
       </c>
       <c r="C9" t="n">
         <v>0.02439803578219026</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004438989477483248</v>
+        <v>0.004438066690957407</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02507927252698097</v>
+        <v>0.02507831449554385</v>
       </c>
       <c r="C10" t="n">
         <v>0.02410707382108046</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0009721987059005156</v>
+        <v>-0.0009712406744633965</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0204074350984627</v>
+        <v>0.02040751741126747</v>
       </c>
       <c r="C11" t="n">
         <v>0.02256909124826002</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002161656149797322</v>
+        <v>0.002161573836992552</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02109015655023212</v>
+        <v>0.02108963973664403</v>
       </c>
       <c r="C12" t="n">
         <v>0.02254341572276091</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001453259172528799</v>
+        <v>0.001453775986116887</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01820978086942295</v>
+        <v>0.01821088009415384</v>
       </c>
       <c r="C14" t="n">
         <v>0.02065838566254367</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002448604793120729</v>
+        <v>0.002447505568389838</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01736304964382798</v>
+        <v>0.01736344688473159</v>
       </c>
       <c r="C15" t="n">
         <v>0.02063550244274269</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003272452798914711</v>
+        <v>0.003272055558011095</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01995693259069936</v>
+        <v>0.0199582807549643</v>
       </c>
       <c r="C16" t="n">
         <v>0.02049251687862193</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0005355842879225629</v>
+        <v>0.0005342361236576262</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01785509921855159</v>
+        <v>0.01785490416173375</v>
       </c>
       <c r="C17" t="n">
         <v>0.02025294955584253</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002397850337290935</v>
+        <v>0.002398045394108782</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01857574150519969</v>
+        <v>0.01857529365987327</v>
       </c>
       <c r="C18" t="n">
         <v>0.02015978685278786</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001584045347588169</v>
+        <v>0.001584493192914593</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01611996226459539</v>
+        <v>0.01612011085658065</v>
       </c>
       <c r="C19" t="n">
         <v>0.02015648729137089</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004036525026775508</v>
+        <v>0.00403637643479024</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01820477537120514</v>
+        <v>0.01820462351224617</v>
       </c>
       <c r="C20" t="n">
         <v>0.02013089255416659</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00192611718296145</v>
+        <v>0.00192626904192042</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02078332725191926</v>
+        <v>0.02078281672623172</v>
       </c>
       <c r="C21" t="n">
         <v>0.02005915568633871</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0007241715655805538</v>
+        <v>-0.0007236610398930164</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01947661860210799</v>
+        <v>0.01947634135444107</v>
       </c>
       <c r="C22" t="n">
         <v>0.01999752177614628</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0005209031740382938</v>
+        <v>0.000521180421705212</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02385504457066485</v>
+        <v>0.02385473326389686</v>
       </c>
       <c r="C23" t="n">
         <v>0.01998043639129229</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.00387460817937256</v>
+        <v>-0.003874296872604571</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0178384992222055</v>
+        <v>0.01783816319431255</v>
       </c>
       <c r="C24" t="n">
         <v>0.01977774530784111</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001939246085635601</v>
+        <v>0.001939582113528557</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01706087591366818</v>
+        <v>0.01706049412637795</v>
       </c>
       <c r="C25" t="n">
         <v>0.01956865418119118</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002507778267522999</v>
+        <v>0.002508160054813233</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02552710210222405</v>
+        <v>0.02552757535123915</v>
       </c>
       <c r="C26" t="n">
         <v>0.01930252386871256</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.006224578233511489</v>
+        <v>-0.00622505148252659</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01981136201089937</v>
+        <v>0.01981128359994015</v>
       </c>
       <c r="C27" t="n">
         <v>0.01926129187682101</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0005500701340783523</v>
+        <v>-0.0005499917231191372</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01677225338620305</v>
+        <v>0.01677284881653309</v>
       </c>
       <c r="C28" t="n">
         <v>0.01901015595169003</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002237902565486984</v>
+        <v>0.002237307135156942</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02091322953905587</v>
+        <v>0.02091249683237268</v>
       </c>
       <c r="C29" t="n">
         <v>0.01899726106310143</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.001915968475954443</v>
+        <v>-0.001915235769271249</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01671933812794368</v>
+        <v>0.01671898752488711</v>
       </c>
       <c r="C30" t="n">
         <v>0.01893408188391157</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002214743755967898</v>
+        <v>0.002215094359024464</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01709013118856876</v>
+        <v>0.01708986883538308</v>
       </c>
       <c r="C31" t="n">
         <v>0.01855754012987096</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001467408941302199</v>
+        <v>0.001467671294487886</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01678658786653391</v>
+        <v>0.01678649009729349</v>
       </c>
       <c r="C32" t="n">
         <v>0.0183662618746233</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00157967400808939</v>
+        <v>0.001579771777329805</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01624688910346199</v>
+        <v>0.01624628064257086</v>
       </c>
       <c r="C33" t="n">
         <v>0.0183214915762802</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002074602472818207</v>
+        <v>0.002075210933709333</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01947093947141192</v>
+        <v>0.01947085074683838</v>
       </c>
       <c r="C34" t="n">
         <v>0.01828440526237749</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.001186534209034428</v>
+        <v>-0.001186445484460896</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02195546911357792</v>
+        <v>0.02195491833246881</v>
       </c>
       <c r="C35" t="n">
         <v>0.01806174507176764</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.003893724041810275</v>
+        <v>-0.003893173260701165</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01506931967658159</v>
+        <v>0.01507157145941169</v>
       </c>
       <c r="C37" t="n">
         <v>0.01790626138703229</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002836941710450703</v>
+        <v>0.002834689927620603</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01891625026210465</v>
+        <v>0.01891888693001723</v>
       </c>
       <c r="C40" t="n">
         <v>0.01722283406858277</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.001693416193521875</v>
+        <v>-0.001696052861434452</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01668398605826571</v>
+        <v>0.01668428418218156</v>
       </c>
       <c r="C41" t="n">
         <v>0.01706601590619566</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0003820298479299544</v>
+        <v>0.0003817317240141054</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01729658098406543</v>
+        <v>0.01729615395744812</v>
       </c>
       <c r="C43" t="n">
         <v>0.01685798411935381</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0004385968647116108</v>
+        <v>-0.0004381698380943044</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01648319537164441</v>
+        <v>0.01648473869386678</v>
       </c>
       <c r="C44" t="n">
         <v>0.01675529706573752</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0002721016940931097</v>
+        <v>0.0002705583718707431</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01714950737642144</v>
+        <v>0.01714963611218855</v>
       </c>
       <c r="C45" t="n">
         <v>0.01675336141244338</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.0003961459639780646</v>
+        <v>-0.0003962746997451735</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.02030116135468079</v>
+        <v>0.0203009069066309</v>
       </c>
       <c r="C48" t="n">
         <v>0.01630129669887867</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.00399986465580212</v>
+        <v>-0.003999610207752222</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01679386709052998</v>
+        <v>0.01679487057313581</v>
       </c>
       <c r="C49" t="n">
         <v>0.01605722231783535</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0007366447726946321</v>
+        <v>-0.0007376482553004653</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01444634007693042</v>
+        <v>0.01444639578515309</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01444634007693042</v>
+        <v>-0.01444639578515309</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01968685829987607</v>
+        <v>0.01968651158852366</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01968685829987607</v>
+        <v>-0.01968651158852366</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02206929741575743</v>
+        <v>0.02206919278620549</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02206929741575743</v>
+        <v>-0.02206919278620549</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02146270619967941</v>
+        <v>0.0214618405000075</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02146270619967941</v>
+        <v>-0.0214618405000075</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02694586033466213</v>
+        <v>0.0269448652551598</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02694586033466213</v>
+        <v>-0.0269448652551598</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.02178971428137573</v>
+        <v>0.0217886535139718</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.02178971428137573</v>
+        <v>-0.0217886535139718</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01790594169276127</v>
+        <v>0.0179058913280522</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01790594169276127</v>
+        <v>-0.0179058913280522</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02420670513564291</v>
+        <v>0.02420906143422735</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02420670513564291</v>
+        <v>-0.02420906143422735</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02252129543641212</v>
+        <v>0.02252120174170169</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02252129543641212</v>
+        <v>-0.02252120174170169</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>

--- a/output/LOWVOL/rebalance/rebalance_20240628.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20240628.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21.76%</t>
+          <t>21.62%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02362628665123728</v>
+        <v>0.02381154066953687</v>
       </c>
       <c r="C2" t="n">
         <v>0.02891140751654064</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005285120865303361</v>
+        <v>0.005099866847003774</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0246476968499048</v>
+        <v>0.02484134633529629</v>
       </c>
       <c r="C3" t="n">
         <v>0.02787081444179026</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003223117591885465</v>
+        <v>0.003029468106493967</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02456541268189052</v>
+        <v>0.02475787901882445</v>
       </c>
       <c r="C4" t="n">
         <v>0.02783204661179254</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003266633929902014</v>
+        <v>0.00307416759296809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02510419758989544</v>
+        <v>0.02530150856316289</v>
       </c>
       <c r="C5" t="n">
         <v>0.02664218085759721</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001537983267701763</v>
+        <v>0.001340672294434315</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02177799312156369</v>
+        <v>0.02194878743008268</v>
       </c>
       <c r="C6" t="n">
         <v>0.02582650998064961</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004048516859085922</v>
+        <v>0.003877722550566929</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02462701022070983</v>
+        <v>0.02481866105747652</v>
       </c>
       <c r="C7" t="n">
         <v>0.02519559934969607</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0005685891289862431</v>
+        <v>0.0003769382922195544</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02278961003315643</v>
+        <v>0.02296739996920046</v>
       </c>
       <c r="C8" t="n">
         <v>0.02517269721411493</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002383087180958501</v>
+        <v>0.002205297244914469</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01995996909123286</v>
+        <v>0.02011483649399761</v>
       </c>
       <c r="C9" t="n">
         <v>0.02439803578219026</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004438066690957407</v>
+        <v>0.004283199288192652</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02507831449554385</v>
+        <v>0.02527502860443079</v>
       </c>
       <c r="C10" t="n">
         <v>0.02410707382108046</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0009712406744633965</v>
+        <v>-0.001167954783350335</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02040751741126747</v>
+        <v>0.02056672518318858</v>
       </c>
       <c r="C11" t="n">
         <v>0.02256909124826002</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002161573836992552</v>
+        <v>0.00200236606507144</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02108963973664403</v>
+        <v>0.0212547756122338</v>
       </c>
       <c r="C12" t="n">
         <v>0.02254341572276091</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001453775986116887</v>
+        <v>0.001288640110527116</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01821088009415384</v>
+        <v>0.01835191718021043</v>
       </c>
       <c r="C14" t="n">
         <v>0.02065838566254367</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002447505568389838</v>
+        <v>0.002306468482333245</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01736344688473159</v>
+        <v>0.01749857680025509</v>
       </c>
       <c r="C15" t="n">
         <v>0.02063550244274269</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003272055558011095</v>
+        <v>0.0031369256424876</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0199582807549643</v>
+        <v>0.01909983618090812</v>
       </c>
       <c r="C16" t="n">
         <v>0.02049251687862193</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0005342361236576262</v>
+        <v>0.001392680697713804</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01785490416173375</v>
+        <v>0.0179944670643191</v>
       </c>
       <c r="C17" t="n">
         <v>0.02025294955584253</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002398045394108782</v>
+        <v>0.002258482491523429</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01857529365987327</v>
+        <v>0.01872073431904098</v>
       </c>
       <c r="C18" t="n">
         <v>0.02015978685278786</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001584493192914593</v>
+        <v>0.001439052533746876</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01612011085658065</v>
+        <v>0.01582036493357132</v>
       </c>
       <c r="C19" t="n">
         <v>0.02015648729137089</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00403637643479024</v>
+        <v>0.004336122357799569</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01820462351224617</v>
+        <v>0.01834687261161305</v>
       </c>
       <c r="C20" t="n">
         <v>0.02013089255416659</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00192626904192042</v>
+        <v>0.001784019942553533</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02078281672623172</v>
+        <v>0.02094555136008726</v>
       </c>
       <c r="C21" t="n">
         <v>0.02005915568633871</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0007236610398930164</v>
+        <v>-0.0008863956737485516</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01947634135444107</v>
+        <v>0.01962864320551039</v>
       </c>
       <c r="C22" t="n">
         <v>0.01999752177614628</v>
       </c>
       <c r="D22" t="n">
-        <v>0.000521180421705212</v>
+        <v>0.0003688785706358923</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02385473326389686</v>
+        <v>0.02404124494579614</v>
       </c>
       <c r="C23" t="n">
         <v>0.01998043639129229</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.003874296872604571</v>
+        <v>-0.004060808554503848</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01783816319431255</v>
+        <v>0.01797773749682344</v>
       </c>
       <c r="C24" t="n">
         <v>0.01977774530784111</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001939582113528557</v>
+        <v>0.001800007811017662</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01706049412637795</v>
+        <v>0.01719404445526463</v>
       </c>
       <c r="C25" t="n">
         <v>0.01956865418119118</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002508160054813233</v>
+        <v>0.002374609725926548</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02552757535123915</v>
+        <v>0.02572635371013319</v>
       </c>
       <c r="C26" t="n">
         <v>0.01930252386871256</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.00622505148252659</v>
+        <v>-0.006423829841420634</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01981128359994015</v>
+        <v>0.01936188449080804</v>
       </c>
       <c r="C27" t="n">
         <v>0.01926129187682101</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0005499917231191372</v>
+        <v>-0.0001005926139870279</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01677284881653309</v>
+        <v>0.01690316908678189</v>
       </c>
       <c r="C28" t="n">
         <v>0.01901015595169003</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002237307135156942</v>
+        <v>0.00210698686490814</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.02091249683237268</v>
+        <v>0.02107646759857171</v>
       </c>
       <c r="C29" t="n">
         <v>0.01899726106310143</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.001915235769271249</v>
+        <v>-0.002079206535470283</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01671898752488711</v>
+        <v>0.01684984079886296</v>
       </c>
       <c r="C30" t="n">
         <v>0.01893408188391157</v>
       </c>
       <c r="D30" t="n">
-        <v>0.002215094359024464</v>
+        <v>0.002084241085048618</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01708986883538308</v>
+        <v>0.01722352808199849</v>
       </c>
       <c r="C31" t="n">
         <v>0.01855754012987096</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001467671294487886</v>
+        <v>0.001334012047872472</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01678649009729349</v>
+        <v>0.01691761545479366</v>
       </c>
       <c r="C32" t="n">
         <v>0.0183662618746233</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001579771777329805</v>
+        <v>0.001448646419829638</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01624628064257086</v>
+        <v>0.01637370407699179</v>
       </c>
       <c r="C33" t="n">
         <v>0.0183214915762802</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002075210933709333</v>
+        <v>0.001947787499288402</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01947085074683838</v>
+        <v>0.0196229197464014</v>
       </c>
       <c r="C34" t="n">
         <v>0.01828440526237749</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.001186445484460896</v>
+        <v>-0.001338514484023914</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02195491833246881</v>
+        <v>0.02212684236643525</v>
       </c>
       <c r="C35" t="n">
         <v>0.01806174507176764</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.003893173260701165</v>
+        <v>-0.00406509729466761</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01507157145941169</v>
+        <v>0.01438763034372781</v>
       </c>
       <c r="C37" t="n">
         <v>0.01790626138703229</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002834689927620603</v>
+        <v>0.003518631043304479</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01891888693001723</v>
+        <v>0.01795295097780111</v>
       </c>
       <c r="C40" t="n">
         <v>0.01722283406858277</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.001696052861434452</v>
+        <v>-0.0007301169092183389</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01668428418218156</v>
+        <v>0.01681421278886483</v>
       </c>
       <c r="C41" t="n">
         <v>0.01706601590619566</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0003817317240141054</v>
+        <v>0.0002518031173308274</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01729615395744812</v>
+        <v>0.01743158931985711</v>
       </c>
       <c r="C43" t="n">
         <v>0.01685798411935381</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0004381698380943044</v>
+        <v>-0.0005736052005032993</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01648473869386678</v>
+        <v>0.0160905127402821</v>
       </c>
       <c r="C44" t="n">
         <v>0.01675529706573752</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0002705583718707431</v>
+        <v>0.0006647843254554177</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01714963611218855</v>
+        <v>0.01728336773024923</v>
       </c>
       <c r="C45" t="n">
         <v>0.01675336141244338</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.0003962746997451735</v>
+        <v>-0.0005300063178058471</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0203009069066309</v>
+        <v>0.01968047407556425</v>
       </c>
       <c r="C48" t="n">
         <v>0.01630129669887867</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.003999610207752222</v>
+        <v>-0.003379177376685579</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01679487057313581</v>
+        <v>0.01633857522439187</v>
       </c>
       <c r="C49" t="n">
         <v>0.01605722231783535</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0007376482553004653</v>
+        <v>-0.0002813529065565229</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01444639578515309</v>
+        <v>0.01455910087826242</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01444639578515309</v>
+        <v>-0.01455910087826242</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01968651158852366</v>
+        <v>0.01984052392769474</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01968651158852366</v>
+        <v>-0.01984052392769474</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02206919278620549</v>
+        <v>0.0222415591545911</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02206919278620549</v>
+        <v>-0.0222415591545911</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0214618405000075</v>
+        <v>0.02163023319523271</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0214618405000075</v>
+        <v>-0.02163023319523271</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0269448652551598</v>
+        <v>0.02635934960441549</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.0269448652551598</v>
+        <v>-0.02635934960441549</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0217886535139718</v>
+        <v>0.02195979373610815</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0217886535139718</v>
+        <v>-0.02195979373610815</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0179058913280522</v>
+        <v>0.01804570638908766</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.0179058913280522</v>
+        <v>-0.01804570638908766</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.02420906143422735</v>
+        <v>0.02322652976878492</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.02420906143422735</v>
+        <v>-0.02322652976878492</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02252120174170169</v>
+        <v>0.02269708524247518</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02252120174170169</v>
+        <v>-0.02269708524247518</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
